--- a/test_export.xlsx
+++ b/test_export.xlsx
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Согласен</t>
+          <t>Не согласен</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Категория 1 | Категория 3 | Категория 4</t>
+          <t>Категория 1 | Категория 3 | Категория 2</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -548,13 +548,19 @@
           <t>Антидепрессанты работают за счёт увеличения уровня серотонина.</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Не оценено</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr"/>
+          <t>Не согласен</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Категория 4</t>
+        </is>
+      </c>
       <c r="G3" t="inlineStr">
         <is>
           <t>Наименование учреждения 2</t>
@@ -590,13 +596,19 @@
           <t>При пневмонии назначается Азитромицин.</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Не оценено</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr"/>
+          <t>Согласен</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Категория 1</t>
+        </is>
+      </c>
       <c r="G4" t="inlineStr">
         <is>
           <t>Наименование учреждения 3</t>
@@ -4750,7 +4762,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -4760,7 +4772,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6">
@@ -4771,7 +4783,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1.0%</t>
+          <t>3.0%</t>
         </is>
       </c>
     </row>

--- a/test_export.xlsx
+++ b/test_export.xlsx
@@ -510,7 +510,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Категория 1 | Категория 3 | Категория 2</t>
+          <t>Категория 1 | Категория 4</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -548,19 +548,13 @@
           <t>Антидепрессанты работают за счёт увеличения уровня серотонина.</t>
         </is>
       </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Не согласен</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Категория 4</t>
-        </is>
-      </c>
+          <t>Не оценено</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr">
         <is>
           <t>Наименование учреждения 2</t>
@@ -596,19 +590,13 @@
           <t>При пневмонии назначается Азитромицин.</t>
         </is>
       </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
+      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Согласен</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Категория 1</t>
-        </is>
-      </c>
+          <t>Не оценено</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
         <is>
           <t>Наименование учреждения 3</t>
@@ -686,13 +674,19 @@
           <t>При аллергии применяется Эпинефрин.</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr"/>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Не оценено</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr"/>
+          <t>Согласен</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Категория 1 | Категория 2 | Категория 3 | Категория 4</t>
+        </is>
+      </c>
       <c r="G6" t="inlineStr">
         <is>
           <t>Наименование учреждения 5</t>
@@ -854,13 +848,19 @@
           <t>При язве назначается Омепразол.</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr"/>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Не оценено</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr"/>
+          <t>Согласен</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Категория 2</t>
+        </is>
+      </c>
       <c r="G10" t="inlineStr">
         <is>
           <t>Наименование учреждения 9</t>
@@ -1400,13 +1400,19 @@
           <t>Оценка проводится по показателям эффективности и отзывам пациентов.</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr"/>
+      <c r="D23" t="n">
+        <v>1</v>
+      </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Не оценено</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr"/>
+          <t>Согласен</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Категория 4</t>
+        </is>
+      </c>
       <c r="G23" t="inlineStr">
         <is>
           <t>Наименование учреждения 22</t>
@@ -4752,7 +4758,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -4762,7 +4768,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -4772,7 +4778,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6">
@@ -4783,7 +4789,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>3.0%</t>
+          <t>4.0%</t>
         </is>
       </c>
     </row>
